--- a/initialization/DATA_REF.xlsx
+++ b/initialization/DATA_REF.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evgenijkondratev/Desktop/Udis/python_for_bmstu_students/dz/phase_portrait/src/initialization/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evgenijkondratev/Desktop/Udis/Model/initialization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB44911A-81EE-8D40-96D5-DDBE2F562686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEFF0E82-93B2-944D-9685-742D51AC7B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="31380" windowHeight="16240" xr2:uid="{8DE4B857-BAF5-084C-B4E6-B2742A234132}"/>
   </bookViews>
@@ -916,7 +916,7 @@
     </row>
     <row r="3" spans="1:18" ht="21" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B3" s="10">
         <v>2E-3</v>
@@ -952,7 +952,7 @@
     </row>
     <row r="4" spans="1:18" ht="21" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B4" s="10">
         <v>2E-3</v>
@@ -988,7 +988,7 @@
     </row>
     <row r="5" spans="1:18" ht="20" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1032,7 +1032,7 @@
     </row>
     <row r="7" spans="1:18" ht="20" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1054,7 +1054,7 @@
     </row>
     <row r="8" spans="1:18" ht="20" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1076,7 +1076,7 @@
     </row>
     <row r="9" spans="1:18" ht="20" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>

--- a/initialization/DATA_REF.xlsx
+++ b/initialization/DATA_REF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evgenijkondratev/Desktop/Udis/Model/initialization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEFF0E82-93B2-944D-9685-742D51AC7B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8863E51B-8E06-1741-A7C1-D009D5432465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="31380" windowHeight="16240" xr2:uid="{8DE4B857-BAF5-084C-B4E6-B2742A234132}"/>
   </bookViews>
@@ -916,7 +916,7 @@
     </row>
     <row r="3" spans="1:18" ht="21" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="B3" s="10">
         <v>2E-3</v>
@@ -952,7 +952,7 @@
     </row>
     <row r="4" spans="1:18" ht="21" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="B4" s="10">
         <v>2E-3</v>
@@ -988,7 +988,7 @@
     </row>
     <row r="5" spans="1:18" ht="20" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1032,7 +1032,7 @@
     </row>
     <row r="7" spans="1:18" ht="20" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1054,7 +1054,7 @@
     </row>
     <row r="8" spans="1:18" ht="20" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1076,7 +1076,7 @@
     </row>
     <row r="9" spans="1:18" ht="20" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>

--- a/initialization/DATA_REF.xlsx
+++ b/initialization/DATA_REF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evgenijkondratev/Desktop/Udis/Model/initialization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8863E51B-8E06-1741-A7C1-D009D5432465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F3260B-2E2D-7F4C-A57B-01FF17F0E917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="31380" windowHeight="16240" xr2:uid="{8DE4B857-BAF5-084C-B4E6-B2742A234132}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19160" windowHeight="16240" xr2:uid="{8DE4B857-BAF5-084C-B4E6-B2742A234132}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -109,7 +109,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -128,6 +128,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -253,7 +259,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -285,6 +291,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -778,14 +787,14 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" customWidth="1"/>
-    <col min="3" max="3" width="8.1640625" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" customWidth="1"/>
     <col min="5" max="5" width="30" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31" bestFit="1" customWidth="1"/>
@@ -863,10 +872,10 @@
         <v>233.92699999999999</v>
       </c>
       <c r="B2" s="10">
-        <v>2E-3</v>
+        <v>3.48E-4</v>
       </c>
       <c r="C2" s="8">
-        <v>5</v>
+        <v>7.53057</v>
       </c>
       <c r="D2" s="6">
         <v>820</v>
@@ -902,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="4">
-        <v>3.0000000000000001E-3</v>
+        <v>1.7443999999999999E-3</v>
       </c>
       <c r="P2" s="4">
         <v>1</v>
@@ -916,13 +925,13 @@
     </row>
     <row r="3" spans="1:18" ht="21" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B3" s="10">
-        <v>2E-3</v>
+        <v>3.48E-4</v>
       </c>
       <c r="C3" s="8">
-        <v>5</v>
+        <v>7.53057</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="3">
@@ -942,7 +951,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="4">
-        <v>3.0000000000000001E-3</v>
+        <v>1.7443999999999999E-3</v>
       </c>
       <c r="P3" s="4">
         <v>1</v>
@@ -952,13 +961,13 @@
     </row>
     <row r="4" spans="1:18" ht="21" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B4" s="10">
-        <v>2E-3</v>
+        <v>3.48E-4</v>
       </c>
       <c r="C4" s="8">
-        <v>5</v>
+        <v>7.53057</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="3">
@@ -978,7 +987,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="4">
-        <v>3.0000000000000001E-3</v>
+        <v>1.7443999999999999E-3</v>
       </c>
       <c r="P4" s="4">
         <v>1</v>
@@ -987,8 +996,8 @@
       <c r="R4" s="1"/>
     </row>
     <row r="5" spans="1:18" ht="20" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
-        <v>50</v>
+      <c r="A5" s="11">
+        <v>0</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1032,7 +1041,7 @@
     </row>
     <row r="7" spans="1:18" ht="20" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1053,8 +1062,8 @@
       <c r="R7" s="1"/>
     </row>
     <row r="8" spans="1:18" ht="20" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
-        <v>50</v>
+      <c r="A8" s="11">
+        <v>0</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1075,8 +1084,8 @@
       <c r="R8" s="1"/>
     </row>
     <row r="9" spans="1:18" ht="20" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
-        <v>50</v>
+      <c r="A9" s="11">
+        <v>0</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>

--- a/initialization/DATA_REF.xlsx
+++ b/initialization/DATA_REF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evgenijkondratev/Desktop/Udis/Model/initialization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F3260B-2E2D-7F4C-A57B-01FF17F0E917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8DBB86D-9AF1-264E-8AB6-6BEF71F4068A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19160" windowHeight="16240" xr2:uid="{8DE4B857-BAF5-084C-B4E6-B2742A234132}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27760" windowHeight="19000" xr2:uid="{8DE4B857-BAF5-084C-B4E6-B2742A234132}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -786,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{988EBD2F-FA94-4148-A8DF-7F0CB30B9A76}">
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -890,7 +890,7 @@
         <v>-1.3779999999999999</v>
       </c>
       <c r="H2" s="4">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="I2" s="4">
         <v>2E-3</v>

--- a/initialization/DATA_REF.xlsx
+++ b/initialization/DATA_REF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evgenijkondratev/Desktop/Udis/Model/initialization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8DBB86D-9AF1-264E-8AB6-6BEF71F4068A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F8C0A4-D8C6-4345-9DE7-F8D01FFD1EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27760" windowHeight="19000" xr2:uid="{8DE4B857-BAF5-084C-B4E6-B2742A234132}"/>
+    <workbookView xWindow="0" yWindow="1340" windowWidth="27760" windowHeight="19000" xr2:uid="{8DE4B857-BAF5-084C-B4E6-B2742A234132}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -787,7 +787,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -869,13 +869,13 @@
     </row>
     <row r="2" spans="1:18" ht="21" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
-        <v>233.92699999999999</v>
+        <v>363.86</v>
       </c>
       <c r="B2" s="10">
-        <v>3.48E-4</v>
+        <v>3.4908699999999999E-4</v>
       </c>
       <c r="C2" s="8">
-        <v>7.53057</v>
+        <v>18.087</v>
       </c>
       <c r="D2" s="6">
         <v>820</v>
@@ -887,31 +887,31 @@
         <v>-0.45</v>
       </c>
       <c r="G2" s="3">
-        <v>-1.3779999999999999</v>
+        <v>1</v>
       </c>
       <c r="H2" s="4">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="I2" s="4">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
       <c r="J2" s="4">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
       <c r="K2" s="4">
-        <v>2E-3</v>
+        <v>1.3962600000000001E-5</v>
       </c>
       <c r="L2" s="4">
-        <v>2E-3</v>
+        <v>1.3962600000000001E-5</v>
       </c>
       <c r="M2" s="4">
-        <v>2E-3</v>
+        <v>1.3962600000000001E-5</v>
       </c>
       <c r="N2" s="4">
         <v>0</v>
       </c>
       <c r="O2" s="4">
-        <v>1.7443999999999999E-3</v>
+        <v>1.74639E-3</v>
       </c>
       <c r="P2" s="4">
         <v>1</v>
@@ -925,13 +925,13 @@
     </row>
     <row r="3" spans="1:18" ht="21" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
-        <v>20</v>
+        <v>0.52</v>
       </c>
       <c r="B3" s="10">
-        <v>3.48E-4</v>
+        <v>3.4907299999999998E-4</v>
       </c>
       <c r="C3" s="8">
-        <v>7.53057</v>
+        <v>89.281040000000004</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="3">
@@ -941,7 +941,7 @@
         <v>-0.04</v>
       </c>
       <c r="G3" s="3">
-        <v>-13.134</v>
+        <v>1</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -951,7 +951,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="4">
-        <v>1.7443999999999999E-3</v>
+        <v>1.7453600000000001E-3</v>
       </c>
       <c r="P3" s="4">
         <v>1</v>
@@ -961,13 +961,13 @@
     </row>
     <row r="4" spans="1:18" ht="21" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
-        <v>20</v>
+        <v>5.36</v>
       </c>
       <c r="B4" s="10">
-        <v>3.48E-4</v>
+        <v>3.5187100000000002E-4</v>
       </c>
       <c r="C4" s="8">
-        <v>7.53057</v>
+        <v>37.182510000000001</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="3">
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -987,7 +987,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="4">
-        <v>1.7443999999999999E-3</v>
+        <v>1.7593400000000001E-3</v>
       </c>
       <c r="P4" s="4">
         <v>1</v>
@@ -997,7 +997,7 @@
     </row>
     <row r="5" spans="1:18" ht="20" x14ac:dyDescent="0.15">
       <c r="A5" s="11">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1019,7 +1019,7 @@
     </row>
     <row r="6" spans="1:18" ht="20" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
-        <v>284.80700000000002</v>
+        <v>233.96</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1041,7 +1041,7 @@
     </row>
     <row r="7" spans="1:18" ht="20" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
-        <v>20</v>
+        <v>1.27</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1063,7 +1063,7 @@
     </row>
     <row r="8" spans="1:18" ht="20" x14ac:dyDescent="0.15">
       <c r="A8" s="11">
-        <v>0</v>
+        <v>5.36</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="9" spans="1:18" ht="20" x14ac:dyDescent="0.15">
       <c r="A9" s="11">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1107,7 +1107,7 @@
     </row>
     <row r="10" spans="1:18" ht="21" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
-        <v>364.226</v>
+        <v>285.14</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
